--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X22 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X22 at 2200.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView windowWidth="16391" windowHeight="5412"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -90,27 +90,6 @@
     <t xml:space="preserve"> Marks </t>
   </si>
   <si>
-    <t>rest at 2200</t>
-  </si>
-  <si>
-    <t>60w</t>
-  </si>
-  <si>
-    <t>120w</t>
-  </si>
-  <si>
-    <t>150w</t>
-  </si>
-  <si>
-    <t>180w</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>---------------</t>
-  </si>
-  <si>
     <t xml:space="preserve">Avg Hr </t>
   </si>
   <si>
@@ -156,7 +135,22 @@
     <t>Avg EDFR</t>
   </si>
   <si>
+    <t>rest at 2200</t>
+  </si>
+  <si>
     <t>ABG @ rest</t>
+  </si>
+  <si>
+    <t>60w</t>
+  </si>
+  <si>
+    <t>120w</t>
+  </si>
+  <si>
+    <t>150w</t>
+  </si>
+  <si>
+    <t>180w</t>
   </si>
   <si>
     <t>submax</t>
@@ -164,29 +158,378 @@
   <si>
     <t>max</t>
   </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>---------------</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -194,20 +537,309 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -215,6 +847,1260 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$6:$A$74</c:f>
+              <c:numCache>
+                <c:formatCode>h:mm:ss</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0" c:formatCode="h:mm:ss">
+                  <c:v>0.000115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="1" c:formatCode="h:mm:ss">
+                  <c:v>0.000231481481481481</c:v>
+                </c:pt>
+                <c:pt idx="2" c:formatCode="h:mm:ss">
+                  <c:v>0.000347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="3" c:formatCode="h:mm:ss">
+                  <c:v>0.000462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="4" c:formatCode="h:mm:ss">
+                  <c:v>0.000578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="5" c:formatCode="h:mm:ss">
+                  <c:v>0.000694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="6" c:formatCode="h:mm:ss">
+                  <c:v>0.000810185185185185</c:v>
+                </c:pt>
+                <c:pt idx="7" c:formatCode="h:mm:ss">
+                  <c:v>0.000925925925925926</c:v>
+                </c:pt>
+                <c:pt idx="8" c:formatCode="h:mm:ss">
+                  <c:v>0.00104166666666667</c:v>
+                </c:pt>
+                <c:pt idx="9" c:formatCode="h:mm:ss">
+                  <c:v>0.00115740740740741</c:v>
+                </c:pt>
+                <c:pt idx="10" c:formatCode="h:mm:ss">
+                  <c:v>0.00127314814814815</c:v>
+                </c:pt>
+                <c:pt idx="11" c:formatCode="h:mm:ss">
+                  <c:v>0.00138888888888889</c:v>
+                </c:pt>
+                <c:pt idx="12" c:formatCode="h:mm:ss">
+                  <c:v>0.00150462962962963</c:v>
+                </c:pt>
+                <c:pt idx="13" c:formatCode="h:mm:ss">
+                  <c:v>0.00162037037037037</c:v>
+                </c:pt>
+                <c:pt idx="14" c:formatCode="h:mm:ss">
+                  <c:v>0.00173611111111111</c:v>
+                </c:pt>
+                <c:pt idx="15" c:formatCode="h:mm:ss">
+                  <c:v>0.00185185185185185</c:v>
+                </c:pt>
+                <c:pt idx="16" c:formatCode="h:mm:ss">
+                  <c:v>0.00196759259259259</c:v>
+                </c:pt>
+                <c:pt idx="17" c:formatCode="h:mm:ss">
+                  <c:v>0.00208333333333333</c:v>
+                </c:pt>
+                <c:pt idx="18" c:formatCode="h:mm:ss">
+                  <c:v>0.00219907407407407</c:v>
+                </c:pt>
+                <c:pt idx="19" c:formatCode="h:mm:ss">
+                  <c:v>0.00231481481481482</c:v>
+                </c:pt>
+                <c:pt idx="20" c:formatCode="h:mm:ss">
+                  <c:v>0.00243055555555556</c:v>
+                </c:pt>
+                <c:pt idx="21" c:formatCode="h:mm:ss">
+                  <c:v>0.0025462962962963</c:v>
+                </c:pt>
+                <c:pt idx="22" c:formatCode="h:mm:ss">
+                  <c:v>0.00266203703703704</c:v>
+                </c:pt>
+                <c:pt idx="23" c:formatCode="h:mm:ss">
+                  <c:v>0.00277777777777778</c:v>
+                </c:pt>
+                <c:pt idx="24" c:formatCode="h:mm:ss">
+                  <c:v>0.00289351851851852</c:v>
+                </c:pt>
+                <c:pt idx="25" c:formatCode="h:mm:ss">
+                  <c:v>0.00300925925925926</c:v>
+                </c:pt>
+                <c:pt idx="26" c:formatCode="h:mm:ss">
+                  <c:v>0.003125</c:v>
+                </c:pt>
+                <c:pt idx="27" c:formatCode="h:mm:ss">
+                  <c:v>0.00324074074074074</c:v>
+                </c:pt>
+                <c:pt idx="28" c:formatCode="h:mm:ss">
+                  <c:v>0.00335648148148148</c:v>
+                </c:pt>
+                <c:pt idx="29" c:formatCode="h:mm:ss">
+                  <c:v>0.00347222222222222</c:v>
+                </c:pt>
+                <c:pt idx="30" c:formatCode="h:mm:ss">
+                  <c:v>0.00358796296296296</c:v>
+                </c:pt>
+                <c:pt idx="31" c:formatCode="h:mm:ss">
+                  <c:v>0.0037037037037037</c:v>
+                </c:pt>
+                <c:pt idx="32" c:formatCode="h:mm:ss">
+                  <c:v>0.00381944444444444</c:v>
+                </c:pt>
+                <c:pt idx="33" c:formatCode="h:mm:ss">
+                  <c:v>0.00393518518518519</c:v>
+                </c:pt>
+                <c:pt idx="34" c:formatCode="h:mm:ss">
+                  <c:v>0.00405092592592593</c:v>
+                </c:pt>
+                <c:pt idx="35" c:formatCode="h:mm:ss">
+                  <c:v>0.00416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="36" c:formatCode="h:mm:ss">
+                  <c:v>0.00428240740740741</c:v>
+                </c:pt>
+                <c:pt idx="37" c:formatCode="h:mm:ss">
+                  <c:v>0.00439814814814815</c:v>
+                </c:pt>
+                <c:pt idx="38" c:formatCode="h:mm:ss">
+                  <c:v>0.00451388888888889</c:v>
+                </c:pt>
+                <c:pt idx="39" c:formatCode="h:mm:ss">
+                  <c:v>0.00462962962962963</c:v>
+                </c:pt>
+                <c:pt idx="40" c:formatCode="h:mm:ss">
+                  <c:v>0.00474537037037037</c:v>
+                </c:pt>
+                <c:pt idx="41" c:formatCode="h:mm:ss">
+                  <c:v>0.00486111111111111</c:v>
+                </c:pt>
+                <c:pt idx="42" c:formatCode="h:mm:ss">
+                  <c:v>0.00497685185185185</c:v>
+                </c:pt>
+                <c:pt idx="43" c:formatCode="h:mm:ss">
+                  <c:v>0.00509259259259259</c:v>
+                </c:pt>
+                <c:pt idx="44" c:formatCode="h:mm:ss">
+                  <c:v>0.00520833333333333</c:v>
+                </c:pt>
+                <c:pt idx="45" c:formatCode="h:mm:ss">
+                  <c:v>0.00532407407407407</c:v>
+                </c:pt>
+                <c:pt idx="46" c:formatCode="h:mm:ss">
+                  <c:v>0.00543981481481481</c:v>
+                </c:pt>
+                <c:pt idx="47" c:formatCode="h:mm:ss">
+                  <c:v>0.00555555555555556</c:v>
+                </c:pt>
+                <c:pt idx="48" c:formatCode="h:mm:ss">
+                  <c:v>0.0056712962962963</c:v>
+                </c:pt>
+                <c:pt idx="49" c:formatCode="h:mm:ss">
+                  <c:v>0.00578703703703704</c:v>
+                </c:pt>
+                <c:pt idx="50" c:formatCode="h:mm:ss">
+                  <c:v>0.00590277777777778</c:v>
+                </c:pt>
+                <c:pt idx="51" c:formatCode="h:mm:ss">
+                  <c:v>0.00601851851851852</c:v>
+                </c:pt>
+                <c:pt idx="52" c:formatCode="h:mm:ss">
+                  <c:v>0.00613425925925926</c:v>
+                </c:pt>
+                <c:pt idx="53" c:formatCode="h:mm:ss">
+                  <c:v>0.00625</c:v>
+                </c:pt>
+                <c:pt idx="54" c:formatCode="h:mm:ss">
+                  <c:v>0.00636574074074074</c:v>
+                </c:pt>
+                <c:pt idx="55" c:formatCode="h:mm:ss">
+                  <c:v>0.00648148148148148</c:v>
+                </c:pt>
+                <c:pt idx="56" c:formatCode="h:mm:ss">
+                  <c:v>0.00659722222222222</c:v>
+                </c:pt>
+                <c:pt idx="57" c:formatCode="h:mm:ss">
+                  <c:v>0.00671296296296296</c:v>
+                </c:pt>
+                <c:pt idx="58" c:formatCode="h:mm:ss">
+                  <c:v>0.0068287037037037</c:v>
+                </c:pt>
+                <c:pt idx="59" c:formatCode="h:mm:ss">
+                  <c:v>0.00694444444444444</c:v>
+                </c:pt>
+                <c:pt idx="60" c:formatCode="h:mm:ss">
+                  <c:v>0.00706018518518518</c:v>
+                </c:pt>
+                <c:pt idx="61" c:formatCode="h:mm:ss">
+                  <c:v>0.00717592592592593</c:v>
+                </c:pt>
+                <c:pt idx="62" c:formatCode="h:mm:ss">
+                  <c:v>0.00729166666666667</c:v>
+                </c:pt>
+                <c:pt idx="63" c:formatCode="h:mm:ss">
+                  <c:v>0.00740740740740741</c:v>
+                </c:pt>
+                <c:pt idx="64" c:formatCode="h:mm:ss">
+                  <c:v>0.00752314814814815</c:v>
+                </c:pt>
+                <c:pt idx="65" c:formatCode="h:mm:ss">
+                  <c:v>0.00763888888888889</c:v>
+                </c:pt>
+                <c:pt idx="66" c:formatCode="h:mm:ss">
+                  <c:v>0.00775462962962963</c:v>
+                </c:pt>
+                <c:pt idx="67" c:formatCode="h:mm:ss">
+                  <c:v>0.00787037037037037</c:v>
+                </c:pt>
+                <c:pt idx="68" c:formatCode="h:mm:ss">
+                  <c:v>0.00798611111111111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$74</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>5.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.02</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.96</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.03</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.44</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.56</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.38</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.47</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.41</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.28</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.64</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.81</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.36</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.66</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.61</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>8.63</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.59</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>8.64</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.49</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.38</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8.68</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.29</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.69</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.44</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.68</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>10.13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>11.01</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>11.78</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>11.73</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>11.82</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>12.18</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.69</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.68</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>14.38</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>14.42</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>14.98</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>15.25</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.77</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.81</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.83</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>16.67</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>16.34</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>16.35</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>17.11</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>16.22</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>15.26</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.55</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.24</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="0"/>
+        <c:smooth val="0"/>
+        <c:axId val="255991658"/>
+        <c:axId val="829162495"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="255991658"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="829162495"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="829162495"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255991658"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>223520</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>474980</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2692400" y="10934700"/>
+        <a:ext cx="4572000" cy="2743200"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -498,21 +2384,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AI76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M53" workbookViewId="0">
-      <selection activeCell="Y67" sqref="Y67"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -520,7 +2406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +2420,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -593,57 +2479,57 @@
         <v>23</v>
       </c>
       <c r="U4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="V4" s="2" t="s">
+      <c r="AC4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="W4" s="2" t="s">
+      <c r="AD4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="X4" s="2" t="s">
+      <c r="AE4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AF4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="Z4" s="2" t="s">
+      <c r="AG4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AA4" s="2" t="s">
+      <c r="AH4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AB4" s="2" t="s">
+      <c r="AI4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AC4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI4" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
-        <v>1.1574074074074073E-4</v>
+        <v>0.000115740740740741</v>
       </c>
       <c r="B6" s="1">
-        <v>0.86719907407407415</v>
+        <v>0.867199074074074</v>
       </c>
       <c r="C6">
         <v>72</v>
@@ -691,12 +2577,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
-        <v>2.3148148148148146E-4</v>
+        <v>0.000231481481481481</v>
       </c>
       <c r="B7" s="1">
-        <v>0.86731481481481476</v>
+        <v>0.867314814814815</v>
       </c>
       <c r="C7">
         <v>71</v>
@@ -744,12 +2630,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
-        <v>3.4722222222222224E-4</v>
+        <v>0.000347222222222222</v>
       </c>
       <c r="B8" s="1">
-        <v>0.86743055555555559</v>
+        <v>0.867430555555556</v>
       </c>
       <c r="C8">
         <v>69</v>
@@ -797,15 +2683,15 @@
         <v>36</v>
       </c>
       <c r="S8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
-        <v>4.6296296296296293E-4</v>
+        <v>0.000462962962962963</v>
       </c>
       <c r="B9" s="1">
-        <v>0.86754629629629632</v>
+        <v>0.867546296296296</v>
       </c>
       <c r="C9">
         <v>66</v>
@@ -814,7 +2700,7 @@
         <v>75</v>
       </c>
       <c r="E9">
-        <v>5.0199999999999996</v>
+        <v>5.02</v>
       </c>
       <c r="F9">
         <v>3.05</v>
@@ -853,12 +2739,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
-        <v>5.7870370370370378E-4</v>
+        <v>0.000578703703703704</v>
       </c>
       <c r="B10" s="1">
-        <v>0.86766203703703704</v>
+        <v>0.867662037037037</v>
       </c>
       <c r="C10">
         <v>64</v>
@@ -906,12 +2792,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
-        <v>6.9444444444444447E-4</v>
+        <v>0.000694444444444444</v>
       </c>
       <c r="B11" s="1">
-        <v>0.86777777777777787</v>
+        <v>0.867777777777778</v>
       </c>
       <c r="C11">
         <v>64</v>
@@ -959,12 +2845,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
-        <v>8.1018518518518516E-4</v>
+        <v>0.000810185185185185</v>
       </c>
       <c r="B12" s="1">
-        <v>0.86789351851851848</v>
+        <v>0.867893518518518</v>
       </c>
       <c r="C12">
         <v>65</v>
@@ -1012,12 +2898,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
-        <v>9.2592592592592585E-4</v>
+        <v>0.000925925925925926</v>
       </c>
       <c r="B13" s="1">
-        <v>0.8680092592592592</v>
+        <v>0.868009259259259</v>
       </c>
       <c r="C13">
         <v>64</v>
@@ -1065,12 +2951,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
-        <v>1.0416666666666667E-3</v>
+        <v>0.00104166666666667</v>
       </c>
       <c r="B14" s="1">
-        <v>0.86812500000000004</v>
+        <v>0.868125</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -1118,12 +3004,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>1.1574074074074073E-3</v>
+        <v>0.00115740740740741</v>
       </c>
       <c r="B15" s="1">
-        <v>0.86824074074074076</v>
+        <v>0.868240740740741</v>
       </c>
       <c r="C15">
         <v>64</v>
@@ -1186,12 +3072,12 @@
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>1.2731481481481483E-3</v>
+        <v>0.00127314814814815</v>
       </c>
       <c r="B16" s="1">
-        <v>0.86835648148148137</v>
+        <v>0.868356481481481</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -1254,12 +3140,12 @@
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>1.3888888888888889E-3</v>
+        <v>0.00138888888888889</v>
       </c>
       <c r="B17" s="1">
-        <v>0.8684722222222222</v>
+        <v>0.868472222222222</v>
       </c>
       <c r="C17">
         <v>66</v>
@@ -1322,12 +3208,12 @@
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>1.5046296296296294E-3</v>
+        <v>0.00150462962962963</v>
       </c>
       <c r="B18" s="1">
-        <v>0.86858796296296292</v>
+        <v>0.868587962962963</v>
       </c>
       <c r="C18">
         <v>68</v>
@@ -1390,12 +3276,12 @@
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>1.6203703703703703E-3</v>
+        <v>0.00162037037037037</v>
       </c>
       <c r="B19" s="1">
-        <v>0.86870370370370376</v>
+        <v>0.868703703703704</v>
       </c>
       <c r="C19">
         <v>66</v>
@@ -1458,12 +3344,12 @@
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>1.736111111111111E-3</v>
+        <v>0.00173611111111111</v>
       </c>
       <c r="B20" s="1">
-        <v>0.86881944444444448</v>
+        <v>0.868819444444444</v>
       </c>
       <c r="C20">
         <v>66</v>
@@ -1511,7 +3397,7 @@
         <v>39</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="U20" s="2">
         <f>AVERAGE(C6:C20)</f>
@@ -1519,27 +3405,27 @@
       </c>
       <c r="V20" s="2">
         <f t="shared" ref="V20:AI20" si="0">AVERAGE(D6:D20)</f>
-        <v>77.933333333333337</v>
+        <v>77.9333333333333</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>5.2233333333333336</v>
+        <v>5.22333333333333</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="0"/>
-        <v>3.170666666666667</v>
+        <v>3.17066666666667</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="0"/>
-        <v>59.93333333333333</v>
+        <v>59.9333333333333</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="0"/>
-        <v>349.13333333333333</v>
+        <v>349.133333333333</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="0"/>
-        <v>127.46666666666667</v>
+        <v>127.466666666667</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="0"/>
@@ -1547,15 +3433,15 @@
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="0"/>
-        <v>62.266666666666666</v>
+        <v>62.2666666666667</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="0"/>
-        <v>129.19999999999999</v>
+        <v>129.2</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="0"/>
-        <v>1127.3333333333333</v>
+        <v>1127.33333333333</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="0"/>
@@ -1563,7 +3449,7 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="0"/>
-        <v>3.210666666666667</v>
+        <v>3.21066666666667</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" si="0"/>
@@ -1571,15 +3457,15 @@
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="0"/>
-        <v>37.266666666666666</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
+        <v>37.2666666666667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>1.8518518518518517E-3</v>
+        <v>0.00185185185185185</v>
       </c>
       <c r="B21" s="1">
-        <v>0.86893518518518509</v>
+        <v>0.868935185185185</v>
       </c>
       <c r="C21">
         <v>68</v>
@@ -1642,12 +3528,12 @@
       <c r="AH21" s="2"/>
       <c r="AI21" s="2"/>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>1.9675925925925928E-3</v>
+        <v>0.00196759259259259</v>
       </c>
       <c r="B22" s="1">
-        <v>0.86905092592592592</v>
+        <v>0.869050925925926</v>
       </c>
       <c r="C22">
         <v>69</v>
@@ -1710,12 +3596,12 @@
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>2.0833333333333333E-3</v>
+        <v>0.00208333333333333</v>
       </c>
       <c r="B23" s="1">
-        <v>0.86916666666666664</v>
+        <v>0.869166666666667</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -1778,12 +3664,12 @@
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>2.1990740740740742E-3</v>
+        <v>0.00219907407407407</v>
       </c>
       <c r="B24" s="1">
-        <v>0.86928240740740748</v>
+        <v>0.869282407407407</v>
       </c>
       <c r="C24">
         <v>66</v>
@@ -1846,12 +3732,12 @@
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>2.3148148148148151E-3</v>
+        <v>0.00231481481481482</v>
       </c>
       <c r="B25" s="1">
-        <v>0.8693981481481482</v>
+        <v>0.869398148148148</v>
       </c>
       <c r="C25">
         <v>70</v>
@@ -1914,12 +3800,12 @@
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>2.4305555555555556E-3</v>
+        <v>0.00243055555555556</v>
       </c>
       <c r="B26" s="1">
-        <v>0.86951388888888881</v>
+        <v>0.869513888888889</v>
       </c>
       <c r="C26">
         <v>71</v>
@@ -1982,12 +3868,12 @@
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>2.5462962962962961E-3</v>
+        <v>0.0025462962962963</v>
       </c>
       <c r="B27" s="1">
-        <v>0.86962962962962964</v>
+        <v>0.86962962962963</v>
       </c>
       <c r="C27">
         <v>67</v>
@@ -2050,12 +3936,12 @@
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>2.6620370370370374E-3</v>
+        <v>0.00266203703703704</v>
       </c>
       <c r="B28" s="1">
-        <v>0.86974537037037036</v>
+        <v>0.86974537037037</v>
       </c>
       <c r="C28">
         <v>66</v>
@@ -2118,12 +4004,12 @@
       <c r="AH28" s="2"/>
       <c r="AI28" s="2"/>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>2.7777777777777779E-3</v>
+        <v>0.00277777777777778</v>
       </c>
       <c r="B29" s="1">
-        <v>0.86986111111111108</v>
+        <v>0.869861111111111</v>
       </c>
       <c r="C29">
         <v>71</v>
@@ -2171,7 +4057,7 @@
         <v>43</v>
       </c>
       <c r="S29" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
@@ -2189,12 +4075,12 @@
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>2.8935185185185188E-3</v>
+        <v>0.00289351851851852</v>
       </c>
       <c r="B30" s="1">
-        <v>0.86997685185185192</v>
+        <v>0.869976851851852</v>
       </c>
       <c r="C30">
         <v>89</v>
@@ -2257,12 +4143,12 @@
       <c r="AH30" s="2"/>
       <c r="AI30" s="2"/>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>3.0092592592592588E-3</v>
+        <v>0.00300925925925926</v>
       </c>
       <c r="B31" s="1">
-        <v>0.87009259259259253</v>
+        <v>0.870092592592593</v>
       </c>
       <c r="C31">
         <v>96</v>
@@ -2325,12 +4211,12 @@
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>3.1249999999999997E-3</v>
+        <v>0.003125</v>
       </c>
       <c r="B32" s="1">
-        <v>0.87020833333333336</v>
+        <v>0.870208333333333</v>
       </c>
       <c r="C32">
         <v>96</v>
@@ -2393,12 +4279,12 @@
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>3.2407407407407406E-3</v>
+        <v>0.00324074074074074</v>
       </c>
       <c r="B33" s="1">
-        <v>0.87032407407407408</v>
+        <v>0.870324074074074</v>
       </c>
       <c r="C33">
         <v>97</v>
@@ -2461,12 +4347,12 @@
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>3.3564814814814811E-3</v>
+        <v>0.00335648148148148</v>
       </c>
       <c r="B34" s="1">
-        <v>0.87043981481481481</v>
+        <v>0.870439814814815</v>
       </c>
       <c r="C34">
         <v>97</v>
@@ -2529,12 +4415,12 @@
       <c r="AH34" s="2"/>
       <c r="AI34" s="2"/>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>3.472222222222222E-3</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="B35" s="1">
-        <v>0.87055555555555564</v>
+        <v>0.870555555555556</v>
       </c>
       <c r="C35">
         <v>98</v>
@@ -2543,7 +4429,7 @@
         <v>87</v>
       </c>
       <c r="E35">
-        <v>8.6300000000000008</v>
+        <v>8.63</v>
       </c>
       <c r="F35">
         <v>5.24</v>
@@ -2597,12 +4483,12 @@
       <c r="AH35" s="2"/>
       <c r="AI35" s="2"/>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>3.5879629629629629E-3</v>
+        <v>0.00358796296296296</v>
       </c>
       <c r="B36" s="1">
-        <v>0.87067129629629625</v>
+        <v>0.870671296296296</v>
       </c>
       <c r="C36">
         <v>98</v>
@@ -2665,12 +4551,12 @@
       <c r="AH36" s="2"/>
       <c r="AI36" s="2"/>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>3.7037037037037034E-3</v>
+        <v>0.0037037037037037</v>
       </c>
       <c r="B37" s="1">
-        <v>0.87078703703703697</v>
+        <v>0.870787037037037</v>
       </c>
       <c r="C37">
         <v>99</v>
@@ -2733,12 +4619,12 @@
       <c r="AH37" s="2"/>
       <c r="AI37" s="2"/>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>3.8194444444444443E-3</v>
+        <v>0.00381944444444444</v>
       </c>
       <c r="B38" s="1">
-        <v>0.8709027777777778</v>
+        <v>0.870902777777778</v>
       </c>
       <c r="C38">
         <v>97</v>
@@ -2801,12 +4687,12 @@
       <c r="AH38" s="2"/>
       <c r="AI38" s="2"/>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>3.9351851851851857E-3</v>
+        <v>0.00393518518518519</v>
       </c>
       <c r="B39" s="1">
-        <v>0.87101851851851853</v>
+        <v>0.871018518518519</v>
       </c>
       <c r="C39">
         <v>99</v>
@@ -2815,7 +4701,7 @@
         <v>83</v>
       </c>
       <c r="E39">
-        <v>8.3800000000000008</v>
+        <v>8.38</v>
       </c>
       <c r="F39">
         <v>5.09</v>
@@ -2869,12 +4755,12 @@
       <c r="AH39" s="2"/>
       <c r="AI39" s="2"/>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>4.0509259259259257E-3</v>
+        <v>0.00405092592592593</v>
       </c>
       <c r="B40" s="1">
-        <v>0.87113425925925936</v>
+        <v>0.871134259259259</v>
       </c>
       <c r="C40">
         <v>98</v>
@@ -2883,7 +4769,7 @@
         <v>84</v>
       </c>
       <c r="E40">
-        <v>8.3000000000000007</v>
+        <v>8.3</v>
       </c>
       <c r="F40">
         <v>5.04</v>
@@ -2913,7 +4799,7 @@
         <v>1162</v>
       </c>
       <c r="O40">
-        <v>5.1100000000000003</v>
+        <v>5.11</v>
       </c>
       <c r="P40">
         <v>133</v>
@@ -2937,12 +4823,12 @@
       <c r="AH40" s="2"/>
       <c r="AI40" s="2"/>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>4.1666666666666666E-3</v>
+        <v>0.00416666666666667</v>
       </c>
       <c r="B41" s="1">
-        <v>0.87124999999999997</v>
+        <v>0.87125</v>
       </c>
       <c r="C41">
         <v>101</v>
@@ -3005,12 +4891,12 @@
       <c r="AH41" s="2"/>
       <c r="AI41" s="2"/>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>4.2824074074074075E-3</v>
+        <v>0.00428240740740741</v>
       </c>
       <c r="B42" s="1">
-        <v>0.87136574074074069</v>
+        <v>0.871365740740741</v>
       </c>
       <c r="C42">
         <v>104</v>
@@ -3019,7 +4905,7 @@
         <v>88</v>
       </c>
       <c r="E42">
-        <v>9.2899999999999991</v>
+        <v>9.29</v>
       </c>
       <c r="F42">
         <v>5.64</v>
@@ -3073,12 +4959,12 @@
       <c r="AH42" s="2"/>
       <c r="AI42" s="2"/>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>4.3981481481481484E-3</v>
+        <v>0.00439814814814815</v>
       </c>
       <c r="B43" s="1">
-        <v>0.87148148148148152</v>
+        <v>0.871481481481482</v>
       </c>
       <c r="C43">
         <v>104</v>
@@ -3141,12 +5027,12 @@
       <c r="AH43" s="2"/>
       <c r="AI43" s="2"/>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>4.5138888888888893E-3</v>
+        <v>0.00451388888888889</v>
       </c>
       <c r="B44" s="1">
-        <v>0.87159722222222225</v>
+        <v>0.871597222222222</v>
       </c>
       <c r="C44">
         <v>106</v>
@@ -3209,12 +5095,12 @@
       <c r="AH44" s="2"/>
       <c r="AI44" s="2"/>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>4.6296296296296302E-3</v>
+        <v>0.00462962962962963</v>
       </c>
       <c r="B45" s="1">
-        <v>0.87171296296296286</v>
+        <v>0.871712962962963</v>
       </c>
       <c r="C45">
         <v>106</v>
@@ -3277,12 +5163,12 @@
       <c r="AH45" s="2"/>
       <c r="AI45" s="2"/>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>4.7453703703703703E-3</v>
+        <v>0.00474537037037037</v>
       </c>
       <c r="B46" s="1">
-        <v>0.87182870370370369</v>
+        <v>0.871828703703704</v>
       </c>
       <c r="C46">
         <v>105</v>
@@ -3291,7 +5177,7 @@
         <v>87</v>
       </c>
       <c r="E46">
-        <v>9.3000000000000007</v>
+        <v>9.3</v>
       </c>
       <c r="F46">
         <v>5.65</v>
@@ -3345,12 +5231,12 @@
       <c r="AH46" s="2"/>
       <c r="AI46" s="2"/>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>4.8611111111111112E-3</v>
+        <v>0.00486111111111111</v>
       </c>
       <c r="B47" s="1">
-        <v>0.87194444444444441</v>
+        <v>0.871944444444444</v>
       </c>
       <c r="C47">
         <v>107</v>
@@ -3398,7 +5284,7 @@
         <v>54</v>
       </c>
       <c r="S47" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
@@ -3416,12 +5302,12 @@
       <c r="AH47" s="2"/>
       <c r="AI47" s="2"/>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>4.9768518518518521E-3</v>
+        <v>0.00497685185185185</v>
       </c>
       <c r="B48" s="1">
-        <v>0.87206018518518524</v>
+        <v>0.872060185185185</v>
       </c>
       <c r="C48">
         <v>111</v>
@@ -3430,7 +5316,7 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="F48">
         <v>6.15</v>
@@ -3484,12 +5370,12 @@
       <c r="AH48" s="2"/>
       <c r="AI48" s="2"/>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>5.0925925925925921E-3</v>
+        <v>0.00509259259259259</v>
       </c>
       <c r="B49" s="1">
-        <v>0.87217592592592597</v>
+        <v>0.872175925925926</v>
       </c>
       <c r="C49">
         <v>115</v>
@@ -3552,12 +5438,12 @@
       <c r="AH49" s="2"/>
       <c r="AI49" s="2"/>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>5.208333333333333E-3</v>
+        <v>0.00520833333333333</v>
       </c>
       <c r="B50" s="1">
-        <v>0.87229166666666658</v>
+        <v>0.872291666666667</v>
       </c>
       <c r="C50">
         <v>119</v>
@@ -3620,12 +5506,12 @@
       <c r="AH50" s="2"/>
       <c r="AI50" s="2"/>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>5.3240740740740748E-3</v>
+        <v>0.00532407407407407</v>
       </c>
       <c r="B51" s="1">
-        <v>0.87240740740740741</v>
+        <v>0.872407407407407</v>
       </c>
       <c r="C51">
         <v>123</v>
@@ -3688,12 +5574,12 @@
       <c r="AH51" s="2"/>
       <c r="AI51" s="2"/>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>5.4398148148148149E-3</v>
+        <v>0.00543981481481481</v>
       </c>
       <c r="B52" s="1">
-        <v>0.87252314814814813</v>
+        <v>0.872523148148148</v>
       </c>
       <c r="C52">
         <v>124</v>
@@ -3741,7 +5627,7 @@
         <v>48</v>
       </c>
       <c r="S52" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="U52" s="2"/>
       <c r="V52" s="2"/>
@@ -3759,12 +5645,12 @@
       <c r="AH52" s="2"/>
       <c r="AI52" s="2"/>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>5.5555555555555558E-3</v>
+        <v>0.00555555555555556</v>
       </c>
       <c r="B53" s="1">
-        <v>0.87263888888888896</v>
+        <v>0.872638888888889</v>
       </c>
       <c r="C53">
         <v>128</v>
@@ -3827,12 +5713,12 @@
       <c r="AH53" s="2"/>
       <c r="AI53" s="2"/>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>5.6712962962962958E-3</v>
+        <v>0.0056712962962963</v>
       </c>
       <c r="B54" s="1">
-        <v>0.87275462962962969</v>
+        <v>0.87275462962963</v>
       </c>
       <c r="C54">
         <v>133</v>
@@ -3895,12 +5781,12 @@
       <c r="AH54" s="2"/>
       <c r="AI54" s="2"/>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>5.7870370370370376E-3</v>
+        <v>0.00578703703703704</v>
       </c>
       <c r="B55" s="1">
-        <v>0.8728703703703703</v>
+        <v>0.87287037037037</v>
       </c>
       <c r="C55">
         <v>137</v>
@@ -3963,12 +5849,12 @@
       <c r="AH55" s="2"/>
       <c r="AI55" s="2"/>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>5.9027777777777776E-3</v>
+        <v>0.00590277777777778</v>
       </c>
       <c r="B56" s="1">
-        <v>0.87298611111111113</v>
+        <v>0.872986111111111</v>
       </c>
       <c r="C56">
         <v>139</v>
@@ -4031,12 +5917,12 @@
       <c r="AH56" s="2"/>
       <c r="AI56" s="2"/>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>6.0185185185185177E-3</v>
+        <v>0.00601851851851852</v>
       </c>
       <c r="B57" s="1">
-        <v>0.87310185185185185</v>
+        <v>0.873101851851852</v>
       </c>
       <c r="C57">
         <v>144</v>
@@ -4099,12 +5985,12 @@
       <c r="AH57" s="2"/>
       <c r="AI57" s="2"/>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>6.1342592592592594E-3</v>
+        <v>0.00613425925925926</v>
       </c>
       <c r="B58" s="1">
-        <v>0.87321759259259257</v>
+        <v>0.873217592592593</v>
       </c>
       <c r="C58">
         <v>146</v>
@@ -4143,7 +6029,7 @@
         <v>669</v>
       </c>
       <c r="O58">
-        <v>8.8699999999999992</v>
+        <v>8.87</v>
       </c>
       <c r="P58">
         <v>125</v>
@@ -4167,12 +6053,12 @@
       <c r="AH58" s="2"/>
       <c r="AI58" s="2"/>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>6.2499999999999995E-3</v>
+        <v>0.00625</v>
       </c>
       <c r="B59" s="1">
-        <v>0.87333333333333341</v>
+        <v>0.873333333333333</v>
       </c>
       <c r="C59">
         <v>151</v>
@@ -4211,7 +6097,7 @@
         <v>644</v>
       </c>
       <c r="O59">
-        <v>9.2200000000000006</v>
+        <v>9.22</v>
       </c>
       <c r="P59">
         <v>122</v>
@@ -4220,7 +6106,7 @@
         <v>55</v>
       </c>
       <c r="S59" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="U59" s="2"/>
       <c r="V59" s="2"/>
@@ -4238,12 +6124,12 @@
       <c r="AH59" s="2"/>
       <c r="AI59" s="2"/>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>6.3657407407407404E-3</v>
+        <v>0.00636574074074074</v>
       </c>
       <c r="B60" s="1">
-        <v>0.87344907407407402</v>
+        <v>0.873449074074074</v>
       </c>
       <c r="C60">
         <v>153</v>
@@ -4306,12 +6192,12 @@
       <c r="AH60" s="2"/>
       <c r="AI60" s="2"/>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>6.4814814814814813E-3</v>
+        <v>0.00648148148148148</v>
       </c>
       <c r="B61" s="1">
-        <v>0.87356481481481474</v>
+        <v>0.873564814814815</v>
       </c>
       <c r="C61">
         <v>154</v>
@@ -4350,7 +6236,7 @@
         <v>633</v>
       </c>
       <c r="O61">
-        <v>9.3800000000000008</v>
+        <v>9.38</v>
       </c>
       <c r="P61">
         <v>114</v>
@@ -4374,12 +6260,12 @@
       <c r="AH61" s="2"/>
       <c r="AI61" s="2"/>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>6.5972222222222222E-3</v>
+        <v>0.00659722222222222</v>
       </c>
       <c r="B62" s="1">
-        <v>0.87368055555555557</v>
+        <v>0.873680555555556</v>
       </c>
       <c r="C62">
         <v>156</v>
@@ -4391,7 +6277,7 @@
         <v>14.77</v>
       </c>
       <c r="F62">
-        <v>8.9700000000000006</v>
+        <v>8.97</v>
       </c>
       <c r="G62">
         <v>65</v>
@@ -4442,12 +6328,12 @@
       <c r="AH62" s="2"/>
       <c r="AI62" s="2"/>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>6.7129629629629622E-3</v>
+        <v>0.00671296296296296</v>
       </c>
       <c r="B63" s="1">
-        <v>0.87379629629629629</v>
+        <v>0.873796296296296</v>
       </c>
       <c r="C63">
         <v>159</v>
@@ -4510,12 +6396,12 @@
       <c r="AH63" s="2"/>
       <c r="AI63" s="2"/>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>6.828703703703704E-3</v>
+        <v>0.0068287037037037</v>
       </c>
       <c r="B64" s="1">
-        <v>0.87391203703703713</v>
+        <v>0.873912037037037</v>
       </c>
       <c r="C64">
         <v>160</v>
@@ -4527,7 +6413,7 @@
         <v>15.83</v>
       </c>
       <c r="F64">
-        <v>9.6199999999999992</v>
+        <v>9.62</v>
       </c>
       <c r="G64">
         <v>67</v>
@@ -4578,12 +6464,12 @@
       <c r="AH64" s="2"/>
       <c r="AI64" s="2"/>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>6.9444444444444441E-3</v>
+        <v>0.00694444444444444</v>
       </c>
       <c r="B65" s="1">
-        <v>0.87402777777777774</v>
+        <v>0.874027777777778</v>
       </c>
       <c r="C65">
         <v>162</v>
@@ -4631,75 +6517,75 @@
         <v>50</v>
       </c>
       <c r="S65" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="U65" s="2">
         <f>AVERAGE(C59:C65)</f>
-        <v>156.42857142857142</v>
+        <v>156.428571428571</v>
       </c>
       <c r="V65" s="2">
         <f t="shared" ref="V65:AI65" si="1">AVERAGE(D59:D65)</f>
-        <v>98.142857142857139</v>
+        <v>98.1428571428571</v>
       </c>
       <c r="W65" s="2">
         <f t="shared" si="1"/>
-        <v>15.468571428571428</v>
+        <v>15.4685714285714</v>
       </c>
       <c r="X65" s="2">
         <f t="shared" si="1"/>
-        <v>9.3957142857142859</v>
+        <v>9.39571428571429</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="1"/>
-        <v>66.428571428571431</v>
+        <v>66.4285714285714</v>
       </c>
       <c r="Z65" s="2">
         <f t="shared" si="1"/>
-        <v>192.71428571428572</v>
+        <v>192.714285714286</v>
       </c>
       <c r="AA65" s="2">
         <f t="shared" si="1"/>
-        <v>191.14285714285714</v>
+        <v>191.142857142857</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="1"/>
-        <v>114.85714285714286</v>
+        <v>114.857142857143</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="1"/>
-        <v>62.142857142857146</v>
+        <v>62.1428571428571</v>
       </c>
       <c r="AD65" s="2">
         <f t="shared" si="1"/>
-        <v>146.85714285714286</v>
+        <v>146.857142857143</v>
       </c>
       <c r="AE65" s="2">
         <f t="shared" si="1"/>
-        <v>379.42857142857144</v>
+        <v>379.428571428571</v>
       </c>
       <c r="AF65" s="2">
         <f t="shared" si="1"/>
-        <v>624.71428571428567</v>
+        <v>624.714285714286</v>
       </c>
       <c r="AG65" s="2">
         <f t="shared" si="1"/>
-        <v>9.5185714285714305</v>
+        <v>9.51857142857143</v>
       </c>
       <c r="AH65" s="2">
         <f t="shared" si="1"/>
-        <v>116.85714285714286</v>
+        <v>116.857142857143</v>
       </c>
       <c r="AI65" s="2">
         <f t="shared" si="1"/>
-        <v>52.857142857142854</v>
-      </c>
-    </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+        <v>52.8571428571429</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>7.0601851851851841E-3</v>
+        <v>0.00706018518518518</v>
       </c>
       <c r="B66" s="1">
-        <v>0.87414351851851846</v>
+        <v>0.874143518518518</v>
       </c>
       <c r="C66">
         <v>164</v>
@@ -4708,10 +6594,10 @@
         <v>101</v>
       </c>
       <c r="E66">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="F66">
-        <v>10.130000000000001</v>
+        <v>10.13</v>
       </c>
       <c r="G66">
         <v>67</v>
@@ -4762,12 +6648,12 @@
       <c r="AH66" s="2"/>
       <c r="AI66" s="2"/>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>7.1759259259259259E-3</v>
+        <v>0.00717592592592593</v>
       </c>
       <c r="B67" s="1">
-        <v>0.87425925925925929</v>
+        <v>0.874259259259259</v>
       </c>
       <c r="C67">
         <v>166</v>
@@ -4806,7 +6692,7 @@
         <v>591</v>
       </c>
       <c r="O67">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="P67">
         <v>100</v>
@@ -4830,12 +6716,12 @@
       <c r="AH67" s="2"/>
       <c r="AI67" s="2"/>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>7.2916666666666659E-3</v>
+        <v>0.00729166666666667</v>
       </c>
       <c r="B68" s="1">
-        <v>0.87437500000000001</v>
+        <v>0.874375</v>
       </c>
       <c r="C68">
         <v>167</v>
@@ -4844,7 +6730,7 @@
         <v>97</v>
       </c>
       <c r="E68">
-        <v>16.350000000000001</v>
+        <v>16.35</v>
       </c>
       <c r="F68">
         <v>9.93</v>
@@ -4883,11 +6769,11 @@
         <v>42</v>
       </c>
       <c r="S68" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U68" s="2">
         <f>AVERAGE(C59:C68)</f>
-        <v>159.19999999999999</v>
+        <v>159.2</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" ref="V68:AI68" si="2">AVERAGE(D59:D68)</f>
@@ -4895,11 +6781,11 @@
       </c>
       <c r="W68" s="2">
         <f t="shared" si="2"/>
-        <v>15.763999999999999</v>
+        <v>15.764</v>
       </c>
       <c r="X68" s="2">
         <f t="shared" si="2"/>
-        <v>9.5749999999999993</v>
+        <v>9.575</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="2"/>
@@ -4923,7 +6809,7 @@
       </c>
       <c r="AD68" s="2">
         <f t="shared" si="2"/>
-        <v>146.69999999999999</v>
+        <v>146.7</v>
       </c>
       <c r="AE68" s="2">
         <f t="shared" si="2"/>
@@ -4931,11 +6817,11 @@
       </c>
       <c r="AF68" s="2">
         <f t="shared" si="2"/>
-        <v>613.29999999999995</v>
+        <v>613.3</v>
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="2"/>
-        <v>9.7000000000000011</v>
+        <v>9.7</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="2"/>
@@ -4946,12 +6832,12 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17">
       <c r="A69" s="1">
-        <v>7.4074074074074068E-3</v>
+        <v>0.00740740740740741</v>
       </c>
       <c r="B69" s="1">
-        <v>0.87449074074074085</v>
+        <v>0.874490740740741</v>
       </c>
       <c r="C69">
         <v>168</v>
@@ -4999,12 +6885,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19">
       <c r="A70" s="1">
-        <v>7.5231481481481477E-3</v>
+        <v>0.00752314814814815</v>
       </c>
       <c r="B70" s="1">
-        <v>0.87460648148148146</v>
+        <v>0.874606481481481</v>
       </c>
       <c r="C70">
         <v>166</v>
@@ -5052,15 +6938,15 @@
         <v>53</v>
       </c>
       <c r="S70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17">
       <c r="A71" s="1">
-        <v>7.6388888888888886E-3</v>
+        <v>0.00763888888888889</v>
       </c>
       <c r="B71" s="1">
-        <v>0.87472222222222218</v>
+        <v>0.874722222222222</v>
       </c>
       <c r="C71">
         <v>159</v>
@@ -5108,12 +6994,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17">
       <c r="A72" s="1">
-        <v>7.7546296296296287E-3</v>
+        <v>0.00775462962962963</v>
       </c>
       <c r="B72" s="1">
-        <v>0.87483796296296301</v>
+        <v>0.874837962962963</v>
       </c>
       <c r="C72">
         <v>153</v>
@@ -5152,7 +7038,7 @@
         <v>663</v>
       </c>
       <c r="O72">
-        <v>8.9499999999999993</v>
+        <v>8.95</v>
       </c>
       <c r="P72">
         <v>112</v>
@@ -5161,12 +7047,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17">
       <c r="A73" s="1">
-        <v>7.8703703703703713E-3</v>
+        <v>0.00787037037037037</v>
       </c>
       <c r="B73" s="1">
-        <v>0.87495370370370373</v>
+        <v>0.874953703703704</v>
       </c>
       <c r="C73">
         <v>147</v>
@@ -5214,12 +7100,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="1">
-        <v>7.9861111111111122E-3</v>
+        <v>0.00798611111111111</v>
       </c>
       <c r="B74" s="1">
-        <v>0.87506944444444434</v>
+        <v>0.875069444444444</v>
       </c>
       <c r="C74">
         <v>143</v>
@@ -5231,7 +7117,7 @@
         <v>13.77</v>
       </c>
       <c r="F74">
-        <v>8.3699999999999992</v>
+        <v>8.37</v>
       </c>
       <c r="G74">
         <v>69</v>
@@ -5258,7 +7144,7 @@
         <v>701</v>
       </c>
       <c r="O74">
-        <v>8.4700000000000006</v>
+        <v>8.47</v>
       </c>
       <c r="P74">
         <v>129</v>
@@ -5267,36 +7153,46 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X22 at 2200.xlsx
+++ b/QT_VO2max_Data/Xining_VO2_QT_values_revisited_20June2019/VO2_Physioflow_Avg_Match_Watts_Dean/physioflow/26Sept2013_Xining_Physioflow_X22X26/X22 at 2200.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wanju\Desktop\check\QT_VO2max_Data\Xining_VO2_QT_values_revisited_20June2019\VO2_Physioflow_Avg_Match_Watts_Dean\physioflow\26Sept2013_Xining_Physioflow_X22X26\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4012B43E-FDBC-420A-96DE-70306F453F9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="16391" windowHeight="5412"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -168,14 +182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,351 +193,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -537,322 +215,37 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="35" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -864,7 +257,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -890,6 +282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -914,221 +307,218 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dLbls>
-            <c:delete val="1"/>
-          </c:dLbls>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$A$6:$A$74</c:f>
               <c:numCache>
                 <c:formatCode>h:mm:ss</c:formatCode>
                 <c:ptCount val="69"/>
-                <c:pt idx="0" c:formatCode="h:mm:ss">
-                  <c:v>0.000115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="1" c:formatCode="h:mm:ss">
-                  <c:v>0.000231481481481481</c:v>
-                </c:pt>
-                <c:pt idx="2" c:formatCode="h:mm:ss">
-                  <c:v>0.000347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="3" c:formatCode="h:mm:ss">
-                  <c:v>0.000462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="4" c:formatCode="h:mm:ss">
-                  <c:v>0.000578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="5" c:formatCode="h:mm:ss">
-                  <c:v>0.000694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="6" c:formatCode="h:mm:ss">
-                  <c:v>0.000810185185185185</c:v>
-                </c:pt>
-                <c:pt idx="7" c:formatCode="h:mm:ss">
-                  <c:v>0.000925925925925926</c:v>
-                </c:pt>
-                <c:pt idx="8" c:formatCode="h:mm:ss">
-                  <c:v>0.00104166666666667</c:v>
-                </c:pt>
-                <c:pt idx="9" c:formatCode="h:mm:ss">
-                  <c:v>0.00115740740740741</c:v>
-                </c:pt>
-                <c:pt idx="10" c:formatCode="h:mm:ss">
-                  <c:v>0.00127314814814815</c:v>
-                </c:pt>
-                <c:pt idx="11" c:formatCode="h:mm:ss">
-                  <c:v>0.00138888888888889</c:v>
-                </c:pt>
-                <c:pt idx="12" c:formatCode="h:mm:ss">
-                  <c:v>0.00150462962962963</c:v>
-                </c:pt>
-                <c:pt idx="13" c:formatCode="h:mm:ss">
-                  <c:v>0.00162037037037037</c:v>
-                </c:pt>
-                <c:pt idx="14" c:formatCode="h:mm:ss">
-                  <c:v>0.00173611111111111</c:v>
-                </c:pt>
-                <c:pt idx="15" c:formatCode="h:mm:ss">
-                  <c:v>0.00185185185185185</c:v>
-                </c:pt>
-                <c:pt idx="16" c:formatCode="h:mm:ss">
-                  <c:v>0.00196759259259259</c:v>
-                </c:pt>
-                <c:pt idx="17" c:formatCode="h:mm:ss">
-                  <c:v>0.00208333333333333</c:v>
-                </c:pt>
-                <c:pt idx="18" c:formatCode="h:mm:ss">
-                  <c:v>0.00219907407407407</c:v>
-                </c:pt>
-                <c:pt idx="19" c:formatCode="h:mm:ss">
-                  <c:v>0.00231481481481482</c:v>
-                </c:pt>
-                <c:pt idx="20" c:formatCode="h:mm:ss">
-                  <c:v>0.00243055555555556</c:v>
-                </c:pt>
-                <c:pt idx="21" c:formatCode="h:mm:ss">
-                  <c:v>0.0025462962962963</c:v>
-                </c:pt>
-                <c:pt idx="22" c:formatCode="h:mm:ss">
-                  <c:v>0.00266203703703704</c:v>
-                </c:pt>
-                <c:pt idx="23" c:formatCode="h:mm:ss">
-                  <c:v>0.00277777777777778</c:v>
-                </c:pt>
-                <c:pt idx="24" c:formatCode="h:mm:ss">
-                  <c:v>0.00289351851851852</c:v>
-                </c:pt>
-                <c:pt idx="25" c:formatCode="h:mm:ss">
-                  <c:v>0.00300925925925926</c:v>
-                </c:pt>
-                <c:pt idx="26" c:formatCode="h:mm:ss">
-                  <c:v>0.003125</c:v>
-                </c:pt>
-                <c:pt idx="27" c:formatCode="h:mm:ss">
-                  <c:v>0.00324074074074074</c:v>
-                </c:pt>
-                <c:pt idx="28" c:formatCode="h:mm:ss">
-                  <c:v>0.00335648148148148</c:v>
-                </c:pt>
-                <c:pt idx="29" c:formatCode="h:mm:ss">
-                  <c:v>0.00347222222222222</c:v>
-                </c:pt>
-                <c:pt idx="30" c:formatCode="h:mm:ss">
-                  <c:v>0.00358796296296296</c:v>
-                </c:pt>
-                <c:pt idx="31" c:formatCode="h:mm:ss">
-                  <c:v>0.0037037037037037</c:v>
-                </c:pt>
-                <c:pt idx="32" c:formatCode="h:mm:ss">
-                  <c:v>0.00381944444444444</c:v>
-                </c:pt>
-                <c:pt idx="33" c:formatCode="h:mm:ss">
-                  <c:v>0.00393518518518519</c:v>
-                </c:pt>
-                <c:pt idx="34" c:formatCode="h:mm:ss">
-                  <c:v>0.00405092592592593</c:v>
-                </c:pt>
-                <c:pt idx="35" c:formatCode="h:mm:ss">
-                  <c:v>0.00416666666666667</c:v>
-                </c:pt>
-                <c:pt idx="36" c:formatCode="h:mm:ss">
-                  <c:v>0.00428240740740741</c:v>
-                </c:pt>
-                <c:pt idx="37" c:formatCode="h:mm:ss">
-                  <c:v>0.00439814814814815</c:v>
-                </c:pt>
-                <c:pt idx="38" c:formatCode="h:mm:ss">
-                  <c:v>0.00451388888888889</c:v>
-                </c:pt>
-                <c:pt idx="39" c:formatCode="h:mm:ss">
-                  <c:v>0.00462962962962963</c:v>
-                </c:pt>
-                <c:pt idx="40" c:formatCode="h:mm:ss">
-                  <c:v>0.00474537037037037</c:v>
-                </c:pt>
-                <c:pt idx="41" c:formatCode="h:mm:ss">
-                  <c:v>0.00486111111111111</c:v>
-                </c:pt>
-                <c:pt idx="42" c:formatCode="h:mm:ss">
-                  <c:v>0.00497685185185185</c:v>
-                </c:pt>
-                <c:pt idx="43" c:formatCode="h:mm:ss">
-                  <c:v>0.00509259259259259</c:v>
-                </c:pt>
-                <c:pt idx="44" c:formatCode="h:mm:ss">
-                  <c:v>0.00520833333333333</c:v>
-                </c:pt>
-                <c:pt idx="45" c:formatCode="h:mm:ss">
-                  <c:v>0.00532407407407407</c:v>
-                </c:pt>
-                <c:pt idx="46" c:formatCode="h:mm:ss">
-                  <c:v>0.00543981481481481</c:v>
-                </c:pt>
-                <c:pt idx="47" c:formatCode="h:mm:ss">
-                  <c:v>0.00555555555555556</c:v>
-                </c:pt>
-                <c:pt idx="48" c:formatCode="h:mm:ss">
-                  <c:v>0.0056712962962963</c:v>
-                </c:pt>
-                <c:pt idx="49" c:formatCode="h:mm:ss">
-                  <c:v>0.00578703703703704</c:v>
-                </c:pt>
-                <c:pt idx="50" c:formatCode="h:mm:ss">
-                  <c:v>0.00590277777777778</c:v>
-                </c:pt>
-                <c:pt idx="51" c:formatCode="h:mm:ss">
-                  <c:v>0.00601851851851852</c:v>
-                </c:pt>
-                <c:pt idx="52" c:formatCode="h:mm:ss">
-                  <c:v>0.00613425925925926</c:v>
-                </c:pt>
-                <c:pt idx="53" c:formatCode="h:mm:ss">
-                  <c:v>0.00625</c:v>
-                </c:pt>
-                <c:pt idx="54" c:formatCode="h:mm:ss">
-                  <c:v>0.00636574074074074</c:v>
-                </c:pt>
-                <c:pt idx="55" c:formatCode="h:mm:ss">
-                  <c:v>0.00648148148148148</c:v>
-                </c:pt>
-                <c:pt idx="56" c:formatCode="h:mm:ss">
-                  <c:v>0.00659722222222222</c:v>
-                </c:pt>
-                <c:pt idx="57" c:formatCode="h:mm:ss">
-                  <c:v>0.00671296296296296</c:v>
-                </c:pt>
-                <c:pt idx="58" c:formatCode="h:mm:ss">
-                  <c:v>0.0068287037037037</c:v>
-                </c:pt>
-                <c:pt idx="59" c:formatCode="h:mm:ss">
-                  <c:v>0.00694444444444444</c:v>
-                </c:pt>
-                <c:pt idx="60" c:formatCode="h:mm:ss">
-                  <c:v>0.00706018518518518</c:v>
-                </c:pt>
-                <c:pt idx="61" c:formatCode="h:mm:ss">
-                  <c:v>0.00717592592592593</c:v>
-                </c:pt>
-                <c:pt idx="62" c:formatCode="h:mm:ss">
-                  <c:v>0.00729166666666667</c:v>
-                </c:pt>
-                <c:pt idx="63" c:formatCode="h:mm:ss">
-                  <c:v>0.00740740740740741</c:v>
-                </c:pt>
-                <c:pt idx="64" c:formatCode="h:mm:ss">
-                  <c:v>0.00752314814814815</c:v>
-                </c:pt>
-                <c:pt idx="65" c:formatCode="h:mm:ss">
-                  <c:v>0.00763888888888889</c:v>
-                </c:pt>
-                <c:pt idx="66" c:formatCode="h:mm:ss">
-                  <c:v>0.00775462962962963</c:v>
-                </c:pt>
-                <c:pt idx="67" c:formatCode="h:mm:ss">
-                  <c:v>0.00787037037037037</c:v>
-                </c:pt>
-                <c:pt idx="68" c:formatCode="h:mm:ss">
-                  <c:v>0.00798611111111111</c:v>
+                <c:pt idx="0">
+                  <c:v>1.15740740740741E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.31481481481481E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.4722222222222202E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.6296296296296298E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.78703703703704E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.9444444444444404E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.1018518518518505E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2592592592592596E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0416666666666699E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1574074074074099E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.27314814814815E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38888888888889E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5046296296296301E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6203703703703701E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7361111111111099E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.85185185185185E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9675925925925898E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.0833333333333298E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.1990740740740699E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.3148148148148199E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.4305555555555599E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.5462962962963E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.66203703703704E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7777777777777801E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.8935185185185201E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.0092592592592601E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1250000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.2407407407407402E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.3564814814814798E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.4722222222222199E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5879629629629599E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7037037037036999E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.81944444444444E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.93518518518519E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.05092592592593E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.1666666666666701E-3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.2824074074074101E-3</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.3981481481481502E-3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5138888888888902E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.6296296296296302E-3</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.7453703703703703E-3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8611111111111103E-3</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.9768518518518504E-3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.0925925925925904E-3</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2083333333333296E-3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.3240740740740696E-3</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4398148148148097E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5555555555555601E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.6712962962963001E-3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.7870370370370402E-3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.9027777777777802E-3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6.0185185185185203E-3</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.1342592592592603E-3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.2500000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.3657407407407404E-3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6.4814814814814804E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.5972222222222196E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6.7129629629629596E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.8287037037036997E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6.9444444444444397E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>7.0601851851851798E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>7.1759259259259302E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>7.2916666666666703E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>7.4074074074074103E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>7.5231481481481503E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>7.6388888888888904E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>7.7546296296296304E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8703703703703696E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>7.9861111111111105E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1149,7 +539,7 @@
                   <c:v>5.34</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.02</c:v>
+                  <c:v>5.0199999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.96</c:v>
@@ -1227,7 +617,7 @@
                   <c:v>8.61</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8.63</c:v>
+                  <c:v>8.6300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>8.59</c:v>
@@ -1239,16 +629,16 @@
                   <c:v>8.49</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.38</c:v>
+                  <c:v>8.3800000000000008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.3</c:v>
+                  <c:v>8.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>8.68</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.29</c:v>
+                  <c:v>9.2899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9.65</c:v>
@@ -1260,13 +650,13 @@
                   <c:v>9.44</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>9.3</c:v>
+                  <c:v>9.3000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>9.68</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>10.13</c:v>
+                  <c:v>10.130000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>11.01</c:v>
@@ -1320,13 +710,13 @@
                   <c:v>16.64</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>16.67</c:v>
+                  <c:v>16.670000000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>16.34</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>16.35</c:v>
+                  <c:v>16.350000000000001</c:v>
                 </c:pt>
                 <c:pt idx="63">
                   <c:v>17.11</c:v>
@@ -1350,6 +740,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-59F2-4414-A1CF-17D7BAAE9591}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1359,7 +754,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="255991658"/>
         <c:axId val="829162495"/>
@@ -1371,6 +765,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="h:mm:ss" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1404,6 +799,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="829162495"/>
@@ -1462,6 +858,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="255991658"/>
@@ -1502,6 +899,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2069,28 +1467,34 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>223520</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>433070</xdr:colOff>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474980</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2692400" y="10934700"/>
-        <a:ext cx="4572000" cy="2743200"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2384,21 +1788,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="N60" sqref="N60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2406,7 +1810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2524,12 +1928,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:35">
       <c r="A6" s="1">
-        <v>0.000115740740740741</v>
+        <v>1.15740740740741E-4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.867199074074074</v>
+        <v>0.86719907407407404</v>
       </c>
       <c r="C6">
         <v>72</v>
@@ -2577,12 +1981,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:35">
       <c r="A7" s="1">
-        <v>0.000231481481481481</v>
+        <v>2.31481481481481E-4</v>
       </c>
       <c r="B7" s="1">
-        <v>0.867314814814815</v>
+        <v>0.86731481481481498</v>
       </c>
       <c r="C7">
         <v>71</v>
@@ -2630,12 +2034,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:35">
       <c r="A8" s="1">
-        <v>0.000347222222222222</v>
+        <v>3.4722222222222202E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>0.867430555555556</v>
+        <v>0.86743055555555604</v>
       </c>
       <c r="C8">
         <v>69</v>
@@ -2686,12 +2090,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:35">
       <c r="A9" s="1">
-        <v>0.000462962962962963</v>
+        <v>4.6296296296296298E-4</v>
       </c>
       <c r="B9" s="1">
-        <v>0.867546296296296</v>
+        <v>0.86754629629629598</v>
       </c>
       <c r="C9">
         <v>66</v>
@@ -2700,7 +2104,7 @@
         <v>75</v>
       </c>
       <c r="E9">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="F9">
         <v>3.05</v>
@@ -2739,12 +2143,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:35">
       <c r="A10" s="1">
-        <v>0.000578703703703704</v>
+        <v>5.78703703703704E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>0.867662037037037</v>
+        <v>0.86766203703703704</v>
       </c>
       <c r="C10">
         <v>64</v>
@@ -2792,12 +2196,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:35">
       <c r="A11" s="1">
-        <v>0.000694444444444444</v>
+        <v>6.9444444444444404E-4</v>
       </c>
       <c r="B11" s="1">
-        <v>0.867777777777778</v>
+        <v>0.86777777777777798</v>
       </c>
       <c r="C11">
         <v>64</v>
@@ -2845,12 +2249,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:35">
       <c r="A12" s="1">
-        <v>0.000810185185185185</v>
+        <v>8.1018518518518505E-4</v>
       </c>
       <c r="B12" s="1">
-        <v>0.867893518518518</v>
+        <v>0.86789351851851804</v>
       </c>
       <c r="C12">
         <v>65</v>
@@ -2898,12 +2302,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:35">
       <c r="A13" s="1">
-        <v>0.000925925925925926</v>
+        <v>9.2592592592592596E-4</v>
       </c>
       <c r="B13" s="1">
-        <v>0.868009259259259</v>
+        <v>0.86800925925925898</v>
       </c>
       <c r="C13">
         <v>64</v>
@@ -2951,12 +2355,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:35">
       <c r="A14" s="1">
-        <v>0.00104166666666667</v>
+        <v>1.0416666666666699E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>0.868125</v>
+        <v>0.86812500000000004</v>
       </c>
       <c r="C14">
         <v>65</v>
@@ -3006,10 +2410,10 @@
     </row>
     <row r="15" spans="1:35">
       <c r="A15" s="1">
-        <v>0.00115740740740741</v>
+        <v>1.1574074074074099E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>0.868240740740741</v>
+        <v>0.86824074074074098</v>
       </c>
       <c r="C15">
         <v>64</v>
@@ -3074,10 +2478,10 @@
     </row>
     <row r="16" spans="1:35">
       <c r="A16" s="1">
-        <v>0.00127314814814815</v>
+        <v>1.27314814814815E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>0.868356481481481</v>
+        <v>0.86835648148148104</v>
       </c>
       <c r="C16">
         <v>63</v>
@@ -3142,10 +2546,10 @@
     </row>
     <row r="17" spans="1:35">
       <c r="A17" s="1">
-        <v>0.00138888888888889</v>
+        <v>1.38888888888889E-3</v>
       </c>
       <c r="B17" s="1">
-        <v>0.868472222222222</v>
+        <v>0.86847222222222198</v>
       </c>
       <c r="C17">
         <v>66</v>
@@ -3210,10 +2614,10 @@
     </row>
     <row r="18" spans="1:35">
       <c r="A18" s="1">
-        <v>0.00150462962962963</v>
+        <v>1.5046296296296301E-3</v>
       </c>
       <c r="B18" s="1">
-        <v>0.868587962962963</v>
+        <v>0.86858796296296303</v>
       </c>
       <c r="C18">
         <v>68</v>
@@ -3278,10 +2682,10 @@
     </row>
     <row r="19" spans="1:35">
       <c r="A19" s="1">
-        <v>0.00162037037037037</v>
+        <v>1.6203703703703701E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>0.868703703703704</v>
+        <v>0.86870370370370398</v>
       </c>
       <c r="C19">
         <v>66</v>
@@ -3346,10 +2750,10 @@
     </row>
     <row r="20" spans="1:35">
       <c r="A20" s="1">
-        <v>0.00173611111111111</v>
+        <v>1.7361111111111099E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>0.868819444444444</v>
+        <v>0.86881944444444403</v>
       </c>
       <c r="C20">
         <v>66</v>
@@ -3405,27 +2809,27 @@
       </c>
       <c r="V20" s="2">
         <f t="shared" ref="V20:AI20" si="0">AVERAGE(D6:D20)</f>
-        <v>77.9333333333333</v>
+        <v>77.933333333333337</v>
       </c>
       <c r="W20" s="2">
         <f t="shared" si="0"/>
-        <v>5.22333333333333</v>
+        <v>5.2233333333333336</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="0"/>
-        <v>3.17066666666667</v>
+        <v>3.170666666666667</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="0"/>
-        <v>59.9333333333333</v>
+        <v>59.93333333333333</v>
       </c>
       <c r="Z20" s="2">
         <f t="shared" si="0"/>
-        <v>349.133333333333</v>
+        <v>349.13333333333333</v>
       </c>
       <c r="AA20" s="2">
         <f t="shared" si="0"/>
-        <v>127.466666666667</v>
+        <v>127.46666666666667</v>
       </c>
       <c r="AB20" s="2">
         <f t="shared" si="0"/>
@@ -3433,15 +2837,15 @@
       </c>
       <c r="AC20" s="2">
         <f t="shared" si="0"/>
-        <v>62.2666666666667</v>
+        <v>62.266666666666666</v>
       </c>
       <c r="AD20" s="2">
         <f t="shared" si="0"/>
-        <v>129.2</v>
+        <v>129.19999999999999</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" si="0"/>
-        <v>1127.33333333333</v>
+        <v>1127.3333333333333</v>
       </c>
       <c r="AF20" s="2">
         <f t="shared" si="0"/>
@@ -3449,7 +2853,7 @@
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="0"/>
-        <v>3.21066666666667</v>
+        <v>3.210666666666667</v>
       </c>
       <c r="AH20" s="2">
         <f t="shared" si="0"/>
@@ -3457,15 +2861,15 @@
       </c>
       <c r="AI20" s="2">
         <f t="shared" si="0"/>
-        <v>37.2666666666667</v>
+        <v>37.266666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:35">
       <c r="A21" s="1">
-        <v>0.00185185185185185</v>
+        <v>1.85185185185185E-3</v>
       </c>
       <c r="B21" s="1">
-        <v>0.868935185185185</v>
+        <v>0.86893518518518498</v>
       </c>
       <c r="C21">
         <v>68</v>
@@ -3530,10 +2934,10 @@
     </row>
     <row r="22" spans="1:35">
       <c r="A22" s="1">
-        <v>0.00196759259259259</v>
+        <v>1.9675925925925898E-3</v>
       </c>
       <c r="B22" s="1">
-        <v>0.869050925925926</v>
+        <v>0.86905092592592603</v>
       </c>
       <c r="C22">
         <v>69</v>
@@ -3598,10 +3002,10 @@
     </row>
     <row r="23" spans="1:35">
       <c r="A23" s="1">
-        <v>0.00208333333333333</v>
+        <v>2.0833333333333298E-3</v>
       </c>
       <c r="B23" s="1">
-        <v>0.869166666666667</v>
+        <v>0.86916666666666698</v>
       </c>
       <c r="C23">
         <v>67</v>
@@ -3666,10 +3070,10 @@
     </row>
     <row r="24" spans="1:35">
       <c r="A24" s="1">
-        <v>0.00219907407407407</v>
+        <v>2.1990740740740699E-3</v>
       </c>
       <c r="B24" s="1">
-        <v>0.869282407407407</v>
+        <v>0.86928240740740703</v>
       </c>
       <c r="C24">
         <v>66</v>
@@ -3734,10 +3138,10 @@
     </row>
     <row r="25" spans="1:35">
       <c r="A25" s="1">
-        <v>0.00231481481481482</v>
+        <v>2.3148148148148199E-3</v>
       </c>
       <c r="B25" s="1">
-        <v>0.869398148148148</v>
+        <v>0.86939814814814798</v>
       </c>
       <c r="C25">
         <v>70</v>
@@ -3802,10 +3206,10 @@
     </row>
     <row r="26" spans="1:35">
       <c r="A26" s="1">
-        <v>0.00243055555555556</v>
+        <v>2.4305555555555599E-3</v>
       </c>
       <c r="B26" s="1">
-        <v>0.869513888888889</v>
+        <v>0.86951388888888903</v>
       </c>
       <c r="C26">
         <v>71</v>
@@ -3870,10 +3274,10 @@
     </row>
     <row r="27" spans="1:35">
       <c r="A27" s="1">
-        <v>0.0025462962962963</v>
+        <v>2.5462962962963E-3</v>
       </c>
       <c r="B27" s="1">
-        <v>0.86962962962963</v>
+        <v>0.86962962962962997</v>
       </c>
       <c r="C27">
         <v>67</v>
@@ -3938,10 +3342,10 @@
     </row>
     <row r="28" spans="1:35">
       <c r="A28" s="1">
-        <v>0.00266203703703704</v>
+        <v>2.66203703703704E-3</v>
       </c>
       <c r="B28" s="1">
-        <v>0.86974537037037</v>
+        <v>0.86974537037037003</v>
       </c>
       <c r="C28">
         <v>66</v>
@@ -4006,10 +3410,10 @@
     </row>
     <row r="29" spans="1:35">
       <c r="A29" s="1">
-        <v>0.00277777777777778</v>
+        <v>2.7777777777777801E-3</v>
       </c>
       <c r="B29" s="1">
-        <v>0.869861111111111</v>
+        <v>0.86986111111111097</v>
       </c>
       <c r="C29">
         <v>71</v>
@@ -4077,10 +3481,10 @@
     </row>
     <row r="30" spans="1:35">
       <c r="A30" s="1">
-        <v>0.00289351851851852</v>
+        <v>2.8935185185185201E-3</v>
       </c>
       <c r="B30" s="1">
-        <v>0.869976851851852</v>
+        <v>0.86997685185185203</v>
       </c>
       <c r="C30">
         <v>89</v>
@@ -4145,10 +3549,10 @@
     </row>
     <row r="31" spans="1:35">
       <c r="A31" s="1">
-        <v>0.00300925925925926</v>
+        <v>3.0092592592592601E-3</v>
       </c>
       <c r="B31" s="1">
-        <v>0.870092592592593</v>
+        <v>0.87009259259259297</v>
       </c>
       <c r="C31">
         <v>96</v>
@@ -4213,10 +3617,10 @@
     </row>
     <row r="32" spans="1:35">
       <c r="A32" s="1">
-        <v>0.003125</v>
+        <v>3.1250000000000002E-3</v>
       </c>
       <c r="B32" s="1">
-        <v>0.870208333333333</v>
+        <v>0.87020833333333303</v>
       </c>
       <c r="C32">
         <v>96</v>
@@ -4281,10 +3685,10 @@
     </row>
     <row r="33" spans="1:35">
       <c r="A33" s="1">
-        <v>0.00324074074074074</v>
+        <v>3.2407407407407402E-3</v>
       </c>
       <c r="B33" s="1">
-        <v>0.870324074074074</v>
+        <v>0.87032407407407397</v>
       </c>
       <c r="C33">
         <v>97</v>
@@ -4349,10 +3753,10 @@
     </row>
     <row r="34" spans="1:35">
       <c r="A34" s="1">
-        <v>0.00335648148148148</v>
+        <v>3.3564814814814798E-3</v>
       </c>
       <c r="B34" s="1">
-        <v>0.870439814814815</v>
+        <v>0.87043981481481503</v>
       </c>
       <c r="C34">
         <v>97</v>
@@ -4417,10 +3821,10 @@
     </row>
     <row r="35" spans="1:35">
       <c r="A35" s="1">
-        <v>0.00347222222222222</v>
+        <v>3.4722222222222199E-3</v>
       </c>
       <c r="B35" s="1">
-        <v>0.870555555555556</v>
+        <v>0.87055555555555597</v>
       </c>
       <c r="C35">
         <v>98</v>
@@ -4429,7 +3833,7 @@
         <v>87</v>
       </c>
       <c r="E35">
-        <v>8.63</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="F35">
         <v>5.24</v>
@@ -4485,10 +3889,10 @@
     </row>
     <row r="36" spans="1:35">
       <c r="A36" s="1">
-        <v>0.00358796296296296</v>
+        <v>3.5879629629629599E-3</v>
       </c>
       <c r="B36" s="1">
-        <v>0.870671296296296</v>
+        <v>0.87067129629629603</v>
       </c>
       <c r="C36">
         <v>98</v>
@@ -4553,10 +3957,10 @@
     </row>
     <row r="37" spans="1:35">
       <c r="A37" s="1">
-        <v>0.0037037037037037</v>
+        <v>3.7037037037036999E-3</v>
       </c>
       <c r="B37" s="1">
-        <v>0.870787037037037</v>
+        <v>0.87078703703703697</v>
       </c>
       <c r="C37">
         <v>99</v>
@@ -4621,10 +4025,10 @@
     </row>
     <row r="38" spans="1:35">
       <c r="A38" s="1">
-        <v>0.00381944444444444</v>
+        <v>3.81944444444444E-3</v>
       </c>
       <c r="B38" s="1">
-        <v>0.870902777777778</v>
+        <v>0.87090277777777803</v>
       </c>
       <c r="C38">
         <v>97</v>
@@ -4689,10 +4093,10 @@
     </row>
     <row r="39" spans="1:35">
       <c r="A39" s="1">
-        <v>0.00393518518518519</v>
+        <v>3.93518518518519E-3</v>
       </c>
       <c r="B39" s="1">
-        <v>0.871018518518519</v>
+        <v>0.87101851851851897</v>
       </c>
       <c r="C39">
         <v>99</v>
@@ -4701,7 +4105,7 @@
         <v>83</v>
       </c>
       <c r="E39">
-        <v>8.38</v>
+        <v>8.3800000000000008</v>
       </c>
       <c r="F39">
         <v>5.09</v>
@@ -4757,10 +4161,10 @@
     </row>
     <row r="40" spans="1:35">
       <c r="A40" s="1">
-        <v>0.00405092592592593</v>
+        <v>4.05092592592593E-3</v>
       </c>
       <c r="B40" s="1">
-        <v>0.871134259259259</v>
+        <v>0.87113425925925903</v>
       </c>
       <c r="C40">
         <v>98</v>
@@ -4769,7 +4173,7 @@
         <v>84</v>
       </c>
       <c r="E40">
-        <v>8.3</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="F40">
         <v>5.04</v>
@@ -4799,7 +4203,7 @@
         <v>1162</v>
       </c>
       <c r="O40">
-        <v>5.11</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="P40">
         <v>133</v>
@@ -4825,10 +4229,10 @@
     </row>
     <row r="41" spans="1:35">
       <c r="A41" s="1">
-        <v>0.00416666666666667</v>
+        <v>4.1666666666666701E-3</v>
       </c>
       <c r="B41" s="1">
-        <v>0.87125</v>
+        <v>0.87124999999999997</v>
       </c>
       <c r="C41">
         <v>101</v>
@@ -4893,10 +4297,10 @@
     </row>
     <row r="42" spans="1:35">
       <c r="A42" s="1">
-        <v>0.00428240740740741</v>
+        <v>4.2824074074074101E-3</v>
       </c>
       <c r="B42" s="1">
-        <v>0.871365740740741</v>
+        <v>0.87136574074074102</v>
       </c>
       <c r="C42">
         <v>104</v>
@@ -4905,7 +4309,7 @@
         <v>88</v>
       </c>
       <c r="E42">
-        <v>9.29</v>
+        <v>9.2899999999999991</v>
       </c>
       <c r="F42">
         <v>5.64</v>
@@ -4961,10 +4365,10 @@
     </row>
     <row r="43" spans="1:35">
       <c r="A43" s="1">
-        <v>0.00439814814814815</v>
+        <v>4.3981481481481502E-3</v>
       </c>
       <c r="B43" s="1">
-        <v>0.871481481481482</v>
+        <v>0.87148148148148197</v>
       </c>
       <c r="C43">
         <v>104</v>
@@ -5029,10 +4433,10 @@
     </row>
     <row r="44" spans="1:35">
       <c r="A44" s="1">
-        <v>0.00451388888888889</v>
+        <v>4.5138888888888902E-3</v>
       </c>
       <c r="B44" s="1">
-        <v>0.871597222222222</v>
+        <v>0.87159722222222202</v>
       </c>
       <c r="C44">
         <v>106</v>
@@ -5097,10 +4501,10 @@
     </row>
     <row r="45" spans="1:35">
       <c r="A45" s="1">
-        <v>0.00462962962962963</v>
+        <v>4.6296296296296302E-3</v>
       </c>
       <c r="B45" s="1">
-        <v>0.871712962962963</v>
+        <v>0.87171296296296297</v>
       </c>
       <c r="C45">
         <v>106</v>
@@ -5165,10 +4569,10 @@
     </row>
     <row r="46" spans="1:35">
       <c r="A46" s="1">
-        <v>0.00474537037037037</v>
+        <v>4.7453703703703703E-3</v>
       </c>
       <c r="B46" s="1">
-        <v>0.871828703703704</v>
+        <v>0.87182870370370402</v>
       </c>
       <c r="C46">
         <v>105</v>
@@ -5177,7 +4581,7 @@
         <v>87</v>
       </c>
       <c r="E46">
-        <v>9.3</v>
+        <v>9.3000000000000007</v>
       </c>
       <c r="F46">
         <v>5.65</v>
@@ -5233,10 +4637,10 @@
     </row>
     <row r="47" spans="1:35">
       <c r="A47" s="1">
-        <v>0.00486111111111111</v>
+        <v>4.8611111111111103E-3</v>
       </c>
       <c r="B47" s="1">
-        <v>0.871944444444444</v>
+        <v>0.87194444444444397</v>
       </c>
       <c r="C47">
         <v>107</v>
@@ -5304,10 +4708,10 @@
     </row>
     <row r="48" spans="1:35">
       <c r="A48" s="1">
-        <v>0.00497685185185185</v>
+        <v>4.9768518518518504E-3</v>
       </c>
       <c r="B48" s="1">
-        <v>0.872060185185185</v>
+        <v>0.87206018518518502</v>
       </c>
       <c r="C48">
         <v>111</v>
@@ -5316,7 +4720,7 @@
         <v>90</v>
       </c>
       <c r="E48">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="F48">
         <v>6.15</v>
@@ -5372,10 +4776,10 @@
     </row>
     <row r="49" spans="1:35">
       <c r="A49" s="1">
-        <v>0.00509259259259259</v>
+        <v>5.0925925925925904E-3</v>
       </c>
       <c r="B49" s="1">
-        <v>0.872175925925926</v>
+        <v>0.87217592592592597</v>
       </c>
       <c r="C49">
         <v>115</v>
@@ -5440,10 +4844,10 @@
     </row>
     <row r="50" spans="1:35">
       <c r="A50" s="1">
-        <v>0.00520833333333333</v>
+        <v>5.2083333333333296E-3</v>
       </c>
       <c r="B50" s="1">
-        <v>0.872291666666667</v>
+        <v>0.87229166666666702</v>
       </c>
       <c r="C50">
         <v>119</v>
@@ -5508,10 +4912,10 @@
     </row>
     <row r="51" spans="1:35">
       <c r="A51" s="1">
-        <v>0.00532407407407407</v>
+        <v>5.3240740740740696E-3</v>
       </c>
       <c r="B51" s="1">
-        <v>0.872407407407407</v>
+        <v>0.87240740740740697</v>
       </c>
       <c r="C51">
         <v>123</v>
@@ -5576,10 +4980,10 @@
     </row>
     <row r="52" spans="1:35">
       <c r="A52" s="1">
-        <v>0.00543981481481481</v>
+        <v>5.4398148148148097E-3</v>
       </c>
       <c r="B52" s="1">
-        <v>0.872523148148148</v>
+        <v>0.87252314814814802</v>
       </c>
       <c r="C52">
         <v>124</v>
@@ -5647,10 +5051,10 @@
     </row>
     <row r="53" spans="1:35">
       <c r="A53" s="1">
-        <v>0.00555555555555556</v>
+        <v>5.5555555555555601E-3</v>
       </c>
       <c r="B53" s="1">
-        <v>0.872638888888889</v>
+        <v>0.87263888888888896</v>
       </c>
       <c r="C53">
         <v>128</v>
@@ -5715,10 +5119,10 @@
     </row>
     <row r="54" spans="1:35">
       <c r="A54" s="1">
-        <v>0.0056712962962963</v>
+        <v>5.6712962962963001E-3</v>
       </c>
       <c r="B54" s="1">
-        <v>0.87275462962963</v>
+        <v>0.87275462962963002</v>
       </c>
       <c r="C54">
         <v>133</v>
@@ -5783,10 +5187,10 @@
     </row>
     <row r="55" spans="1:35">
       <c r="A55" s="1">
-        <v>0.00578703703703704</v>
+        <v>5.7870370370370402E-3</v>
       </c>
       <c r="B55" s="1">
-        <v>0.87287037037037</v>
+        <v>0.87287037037036996</v>
       </c>
       <c r="C55">
         <v>137</v>
@@ -5851,10 +5255,10 @@
     </row>
     <row r="56" spans="1:35">
       <c r="A56" s="1">
-        <v>0.00590277777777778</v>
+        <v>5.9027777777777802E-3</v>
       </c>
       <c r="B56" s="1">
-        <v>0.872986111111111</v>
+        <v>0.87298611111111102</v>
       </c>
       <c r="C56">
         <v>139</v>
@@ -5919,10 +5323,10 @@
     </row>
     <row r="57" spans="1:35">
       <c r="A57" s="1">
-        <v>0.00601851851851852</v>
+        <v>6.0185185185185203E-3</v>
       </c>
       <c r="B57" s="1">
-        <v>0.873101851851852</v>
+        <v>0.87310185185185196</v>
       </c>
       <c r="C57">
         <v>144</v>
@@ -5987,10 +5391,10 @@
     </row>
     <row r="58" spans="1:35">
       <c r="A58" s="1">
-        <v>0.00613425925925926</v>
+        <v>6.1342592592592603E-3</v>
       </c>
       <c r="B58" s="1">
-        <v>0.873217592592593</v>
+        <v>0.87321759259259302</v>
       </c>
       <c r="C58">
         <v>146</v>
@@ -6029,7 +5433,7 @@
         <v>669</v>
       </c>
       <c r="O58">
-        <v>8.87</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="P58">
         <v>125</v>
@@ -6055,10 +5459,10 @@
     </row>
     <row r="59" spans="1:35">
       <c r="A59" s="1">
-        <v>0.00625</v>
+        <v>6.2500000000000003E-3</v>
       </c>
       <c r="B59" s="1">
-        <v>0.873333333333333</v>
+        <v>0.87333333333333296</v>
       </c>
       <c r="C59">
         <v>151</v>
@@ -6097,7 +5501,7 @@
         <v>644</v>
       </c>
       <c r="O59">
-        <v>9.22</v>
+        <v>9.2200000000000006</v>
       </c>
       <c r="P59">
         <v>122</v>
@@ -6126,10 +5530,10 @@
     </row>
     <row r="60" spans="1:35">
       <c r="A60" s="1">
-        <v>0.00636574074074074</v>
+        <v>6.3657407407407404E-3</v>
       </c>
       <c r="B60" s="1">
-        <v>0.873449074074074</v>
+        <v>0.87344907407407402</v>
       </c>
       <c r="C60">
         <v>153</v>
@@ -6194,10 +5598,10 @@
     </row>
     <row r="61" spans="1:35">
       <c r="A61" s="1">
-        <v>0.00648148148148148</v>
+        <v>6.4814814814814804E-3</v>
       </c>
       <c r="B61" s="1">
-        <v>0.873564814814815</v>
+        <v>0.87356481481481496</v>
       </c>
       <c r="C61">
         <v>154</v>
@@ -6236,7 +5640,7 @@
         <v>633</v>
       </c>
       <c r="O61">
-        <v>9.38</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="P61">
         <v>114</v>
@@ -6262,10 +5666,10 @@
     </row>
     <row r="62" spans="1:35">
       <c r="A62" s="1">
-        <v>0.00659722222222222</v>
+        <v>6.5972222222222196E-3</v>
       </c>
       <c r="B62" s="1">
-        <v>0.873680555555556</v>
+        <v>0.87368055555555602</v>
       </c>
       <c r="C62">
         <v>156</v>
@@ -6277,7 +5681,7 @@
         <v>14.77</v>
       </c>
       <c r="F62">
-        <v>8.97</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="G62">
         <v>65</v>
@@ -6330,10 +5734,10 @@
     </row>
     <row r="63" spans="1:35">
       <c r="A63" s="1">
-        <v>0.00671296296296296</v>
+        <v>6.7129629629629596E-3</v>
       </c>
       <c r="B63" s="1">
-        <v>0.873796296296296</v>
+        <v>0.87379629629629596</v>
       </c>
       <c r="C63">
         <v>159</v>
@@ -6398,10 +5802,10 @@
     </row>
     <row r="64" spans="1:35">
       <c r="A64" s="1">
-        <v>0.0068287037037037</v>
+        <v>6.8287037037036997E-3</v>
       </c>
       <c r="B64" s="1">
-        <v>0.873912037037037</v>
+        <v>0.87391203703703701</v>
       </c>
       <c r="C64">
         <v>160</v>
@@ -6413,7 +5817,7 @@
         <v>15.83</v>
       </c>
       <c r="F64">
-        <v>9.62</v>
+        <v>9.6199999999999992</v>
       </c>
       <c r="G64">
         <v>67</v>
@@ -6466,10 +5870,10 @@
     </row>
     <row r="65" spans="1:35">
       <c r="A65" s="1">
-        <v>0.00694444444444444</v>
+        <v>6.9444444444444397E-3</v>
       </c>
       <c r="B65" s="1">
-        <v>0.874027777777778</v>
+        <v>0.87402777777777796</v>
       </c>
       <c r="C65">
         <v>162</v>
@@ -6521,71 +5925,71 @@
       </c>
       <c r="U65" s="2">
         <f>AVERAGE(C59:C65)</f>
-        <v>156.428571428571</v>
+        <v>156.42857142857142</v>
       </c>
       <c r="V65" s="2">
         <f t="shared" ref="V65:AI65" si="1">AVERAGE(D59:D65)</f>
-        <v>98.1428571428571</v>
+        <v>98.142857142857139</v>
       </c>
       <c r="W65" s="2">
         <f t="shared" si="1"/>
-        <v>15.4685714285714</v>
+        <v>15.468571428571428</v>
       </c>
       <c r="X65" s="2">
         <f t="shared" si="1"/>
-        <v>9.39571428571429</v>
+        <v>9.3957142857142859</v>
       </c>
       <c r="Y65" s="2">
         <f t="shared" si="1"/>
-        <v>66.4285714285714</v>
+        <v>66.428571428571431</v>
       </c>
       <c r="Z65" s="2">
         <f t="shared" si="1"/>
-        <v>192.714285714286</v>
+        <v>192.71428571428572</v>
       </c>
       <c r="AA65" s="2">
         <f t="shared" si="1"/>
-        <v>191.142857142857</v>
+        <v>191.14285714285714</v>
       </c>
       <c r="AB65" s="2">
         <f t="shared" si="1"/>
-        <v>114.857142857143</v>
+        <v>114.85714285714286</v>
       </c>
       <c r="AC65" s="2">
         <f t="shared" si="1"/>
-        <v>62.1428571428571</v>
+        <v>62.142857142857146</v>
       </c>
       <c r="AD65" s="2">
         <f t="shared" si="1"/>
-        <v>146.857142857143</v>
+        <v>146.85714285714286</v>
       </c>
       <c r="AE65" s="2">
         <f t="shared" si="1"/>
-        <v>379.428571428571</v>
+        <v>379.42857142857144</v>
       </c>
       <c r="AF65" s="2">
         <f t="shared" si="1"/>
-        <v>624.714285714286</v>
+        <v>624.71428571428567</v>
       </c>
       <c r="AG65" s="2">
         <f t="shared" si="1"/>
-        <v>9.51857142857143</v>
+        <v>9.5185714285714305</v>
       </c>
       <c r="AH65" s="2">
         <f t="shared" si="1"/>
-        <v>116.857142857143</v>
+        <v>116.85714285714286</v>
       </c>
       <c r="AI65" s="2">
         <f t="shared" si="1"/>
-        <v>52.8571428571429</v>
+        <v>52.857142857142854</v>
       </c>
     </row>
     <row r="66" spans="1:35">
       <c r="A66" s="1">
-        <v>0.00706018518518518</v>
+        <v>7.0601851851851798E-3</v>
       </c>
       <c r="B66" s="1">
-        <v>0.874143518518518</v>
+        <v>0.87414351851851801</v>
       </c>
       <c r="C66">
         <v>164</v>
@@ -6594,10 +5998,10 @@
         <v>101</v>
       </c>
       <c r="E66">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="F66">
-        <v>10.13</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="G66">
         <v>67</v>
@@ -6650,10 +6054,10 @@
     </row>
     <row r="67" spans="1:35">
       <c r="A67" s="1">
-        <v>0.00717592592592593</v>
+        <v>7.1759259259259302E-3</v>
       </c>
       <c r="B67" s="1">
-        <v>0.874259259259259</v>
+        <v>0.87425925925925896</v>
       </c>
       <c r="C67">
         <v>166</v>
@@ -6661,7 +6065,7 @@
       <c r="D67">
         <v>98</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <v>16.34</v>
       </c>
       <c r="F67">
@@ -6692,7 +6096,7 @@
         <v>591</v>
       </c>
       <c r="O67">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="P67">
         <v>100</v>
@@ -6718,10 +6122,10 @@
     </row>
     <row r="68" spans="1:35">
       <c r="A68" s="1">
-        <v>0.00729166666666667</v>
+        <v>7.2916666666666703E-3</v>
       </c>
       <c r="B68" s="1">
-        <v>0.874375</v>
+        <v>0.87437500000000001</v>
       </c>
       <c r="C68">
         <v>167</v>
@@ -6729,8 +6133,8 @@
       <c r="D68">
         <v>97</v>
       </c>
-      <c r="E68">
-        <v>16.35</v>
+      <c r="E68" s="4">
+        <v>16.350000000000001</v>
       </c>
       <c r="F68">
         <v>9.93</v>
@@ -6773,7 +6177,7 @@
       </c>
       <c r="U68" s="2">
         <f>AVERAGE(C59:C68)</f>
-        <v>159.2</v>
+        <v>159.19999999999999</v>
       </c>
       <c r="V68" s="2">
         <f t="shared" ref="V68:AI68" si="2">AVERAGE(D59:D68)</f>
@@ -6781,11 +6185,11 @@
       </c>
       <c r="W68" s="2">
         <f t="shared" si="2"/>
-        <v>15.764</v>
+        <v>15.763999999999999</v>
       </c>
       <c r="X68" s="2">
         <f t="shared" si="2"/>
-        <v>9.575</v>
+        <v>9.5749999999999993</v>
       </c>
       <c r="Y68" s="2">
         <f t="shared" si="2"/>
@@ -6809,7 +6213,7 @@
       </c>
       <c r="AD68" s="2">
         <f t="shared" si="2"/>
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="AE68" s="2">
         <f t="shared" si="2"/>
@@ -6817,11 +6221,11 @@
       </c>
       <c r="AF68" s="2">
         <f t="shared" si="2"/>
-        <v>613.3</v>
+        <v>613.29999999999995</v>
       </c>
       <c r="AG68" s="2">
         <f t="shared" si="2"/>
-        <v>9.7</v>
+        <v>9.7000000000000011</v>
       </c>
       <c r="AH68" s="2">
         <f t="shared" si="2"/>
@@ -6832,12 +6236,12 @@
         <v>50.6</v>
       </c>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:35">
       <c r="A69" s="1">
-        <v>0.00740740740740741</v>
+        <v>7.4074074074074103E-3</v>
       </c>
       <c r="B69" s="1">
-        <v>0.874490740740741</v>
+        <v>0.87449074074074096</v>
       </c>
       <c r="C69">
         <v>168</v>
@@ -6845,7 +6249,7 @@
       <c r="D69">
         <v>101</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <v>17.11</v>
       </c>
       <c r="F69">
@@ -6885,12 +6289,12 @@
         <v>54</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:35">
       <c r="A70" s="1">
-        <v>0.00752314814814815</v>
+        <v>7.5231481481481503E-3</v>
       </c>
       <c r="B70" s="1">
-        <v>0.874606481481481</v>
+        <v>0.87460648148148101</v>
       </c>
       <c r="C70">
         <v>166</v>
@@ -6941,12 +6345,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:35">
       <c r="A71" s="1">
-        <v>0.00763888888888889</v>
+        <v>7.6388888888888904E-3</v>
       </c>
       <c r="B71" s="1">
-        <v>0.874722222222222</v>
+        <v>0.87472222222222196</v>
       </c>
       <c r="C71">
         <v>159</v>
@@ -6994,12 +6398,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:35">
       <c r="A72" s="1">
-        <v>0.00775462962962963</v>
+        <v>7.7546296296296304E-3</v>
       </c>
       <c r="B72" s="1">
-        <v>0.874837962962963</v>
+        <v>0.87483796296296301</v>
       </c>
       <c r="C72">
         <v>153</v>
@@ -7038,7 +6442,7 @@
         <v>663</v>
       </c>
       <c r="O72">
-        <v>8.95</v>
+        <v>8.9499999999999993</v>
       </c>
       <c r="P72">
         <v>112</v>
@@ -7047,12 +6451,12 @@
         <v>41</v>
       </c>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:35">
       <c r="A73" s="1">
-        <v>0.00787037037037037</v>
+        <v>7.8703703703703696E-3</v>
       </c>
       <c r="B73" s="1">
-        <v>0.874953703703704</v>
+        <v>0.87495370370370396</v>
       </c>
       <c r="C73">
         <v>147</v>
@@ -7100,12 +6504,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:35">
       <c r="A74" s="1">
-        <v>0.00798611111111111</v>
+        <v>7.9861111111111105E-3</v>
       </c>
       <c r="B74" s="1">
-        <v>0.875069444444444</v>
+        <v>0.87506944444444401</v>
       </c>
       <c r="C74">
         <v>143</v>
@@ -7117,7 +6521,7 @@
         <v>13.77</v>
       </c>
       <c r="F74">
-        <v>8.37</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="G74">
         <v>69</v>
@@ -7144,7 +6548,7 @@
         <v>701</v>
       </c>
       <c r="O74">
-        <v>8.47</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="P74">
         <v>129</v>
@@ -7153,46 +6557,37 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:35">
       <c r="A76" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>